--- a/heart_short.xlsx
+++ b/heart_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\OneDrive - Industrial University of HoChiMinh City\TEACHING\IUH\IUH.PTDL\LT\LT-PTDL-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64980E76-45B8-4DBD-8C54-1BA10C8BDA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E4204-5C70-4868-8FB3-494936EA0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,25 @@
     <sheet name="Y_Train" sheetId="4" r:id="rId4"/>
     <sheet name="Y_Test" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
-  <si>
-    <t>age</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>target</t>
   </si>
@@ -37,15 +47,12 @@
   <si>
     <t>c_index</t>
   </si>
-  <si>
-    <t>f_status</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +194,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +372,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -528,11 +541,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,372 +922,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D33B1-90B4-4354-956B-0ACEBCEFC5F7}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>233</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>37</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>130</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
+      <c r="B4">
+        <v>204</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>41</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>130</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>204</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>56</v>
-      </c>
       <c r="B5">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>236</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>354</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B7">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>192</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <v>294</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>140</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>294</v>
-      </c>
-      <c r="E8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>263</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>263</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>199</v>
-      </c>
-      <c r="E10">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>168</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>57</v>
-      </c>
-      <c r="B11">
-        <v>150</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>168</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>229</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="B13">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>268</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>63</v>
-      </c>
-      <c r="B14">
-        <v>130</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>254</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>140</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>203</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>56</v>
-      </c>
-      <c r="B16">
-        <v>130</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>256</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>110</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>229</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>58</v>
-      </c>
-      <c r="B18">
-        <v>120</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>284</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>58</v>
-      </c>
-      <c r="B19">
-        <v>132</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>224</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>110</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>167</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21">
-        <v>117</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>230</v>
-      </c>
-      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -1284,223 +1084,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D541A5-8A7F-4F48-8458-B250D4120E66}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>140</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>130</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>130</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>130</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>52</v>
-      </c>
-      <c r="B8">
-        <v>172</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>145</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>117</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>110</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>140</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>57</v>
-      </c>
-      <c r="B14">
-        <v>120</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>62</v>
-      </c>
-      <c r="B15">
-        <v>140</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>268</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,111 +1124,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6797A9-2DE8-419E-9FF4-B132C8AD1288}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>132</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>110</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>130</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>263</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1622,88 +1145,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D072540-DCC1-4DEA-B158-9A6DEC347023}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1712,48 +1163,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C8A4E-4F13-49C3-9E52-03F2E055391B}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
